--- a/biology/Botanique/Gymnostoma_deplancheanum/Gymnostoma_deplancheanum.xlsx
+++ b/biology/Botanique/Gymnostoma_deplancheanum/Gymnostoma_deplancheanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnostoma deplancheanum est un arbre endémique de Nouvelle-Calédonie.
 Il est appelé localement « bois de fer » (comme toutes les autres espèces de Casuarinacées).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut atteindre une quinzaine de mètres de hauteur. Son tronc est droit avec une écorce grise, noirâtre. Ses rameaux cannelés en forme de fils de 2 mm d'épaisseur ressemblent à des prêles. Le houppier, régulier, a un aspect particulier dû à ses ramifications fines, denses et à son feuillage très caractéristique aux feuilles réduites à de très petites dents, sont disposées en verticilles sur des rameaux fins de section cylindrique, de couleur vert sombre (les aiguilles de bois de fer sont souvent prises pour les aiguilles ou feuilles).
 L'espèce est dioïque. Les chatons femelles sont formés de boules brunes aux aspérités piquantes. Les graines sont très petites et ailées.
@@ -546,11 +560,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été utilisé par les mélanésiens comme bois d'œuvre.
-Il est utilisé en réhabilitation des terrains miniers assez récemment, en raison de sa grande adaptabilité aux terrains très pauvres (fixation de l'azote)[1].
-↑ J.M. Sarrailh et N. Ayrault - Revégétalisation des sites des anciennes mines de nickel en Nouvelle-Calédonie - FAO - Revue Unasylva, n° 207 [1]
+Il est utilisé en réhabilitation des terrains miniers assez récemment, en raison de sa grande adaptabilité aux terrains très pauvres (fixation de l'azote).
+↑ J.M. Sarrailh et N. Ayrault - Revégétalisation des sites des anciennes mines de nickel en Nouvelle-Calédonie - FAO - Revue Unasylva, n° 207 
 			Jeunes plants de Gymnostoma deplancheanum
 			Jeunes plants de Gymnostoma deplancheanum
 </t>
@@ -581,7 +597,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Gauthier, Tanguy Jaffré, Frédéric Rigault Stéphane Mac Coy - Les Casuarinacées endémiques - Caractéristiques écologiques et nutritionnelles - 1994 - Bois et forêts des tropiques N° 242 - ORSOM (Nouvelle-Calédonie) - 13 p.
 </t>
